--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail7 Features.xlsx
@@ -5017,7 +5017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5028,29 +5028,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5071,115 +5069,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5196,72 +5184,66 @@
         <v>2.22767526844721e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.76361437220506</v>
+        <v>1.38354190946992e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.100078774086874</v>
+        <v>4.293691273067084e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.38354190946992e-06</v>
+        <v>-0.09725793891768027</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.293691273067084e-06</v>
+        <v>0.2600646166858129</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09725793891768027</v>
+        <v>0.07689315649555177</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2600646166858129</v>
+        <v>1.801490974305131</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07689315649555177</v>
+        <v>1.688687400445092</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.7581580661936</v>
+        <v>4.09731465355851</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.688687400445092</v>
+        <v>3.828103166043903e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.09731465355851</v>
+        <v>61522491.14894495</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.828103166043903e-15</v>
+        <v>1.904239491356054e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>61522491.14894495</v>
+        <v>14.4894352441559</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.904239491356054e-06</v>
+        <v>0.0001525277204524835</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>14.4894352441559</v>
+        <v>9.68938492415066</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001525277204524835</v>
+        <v>1.191346565246507</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.68938492415066</v>
+        <v>0.01431993999373103</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.191346565246507</v>
+        <v>2.673601695621198</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01431993999373103</v>
+        <v>0.9524330403994552</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.673601695621198</v>
+        <v>1.680009513850018</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9524330403994552</v>
+        <v>3</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.680009513850018</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1896766313725998</v>
       </c>
     </row>
@@ -5276,72 +5258,66 @@
         <v>1.857798150324167e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.015607627521691</v>
+        <v>1.045289416234311e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.865865066537342</v>
+        <v>4.274928053969669e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.045289416234311e-06</v>
+        <v>-0.08724068465200802</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.274928053969669e-06</v>
+        <v>0.217792124167113</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.08724068465200802</v>
+        <v>0.05489102927047075</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.217792124167113</v>
+        <v>1.793798602562331</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05489102927047075</v>
+        <v>1.661557373087176</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.751212811184307</v>
+        <v>4.113879692460272</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.661557373087176</v>
+        <v>3.797336584057422e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.113879692460272</v>
+        <v>60096824.75269204</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.797336584057422e-15</v>
+        <v>1.936832669114915e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>60096824.75269204</v>
+        <v>13.71456844383827</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.936832669114915e-06</v>
+        <v>0.0001454450708301426</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>13.71456844383827</v>
+        <v>8.318414014989859</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001454450708301426</v>
+        <v>1.308257657456268</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.318414014989859</v>
+        <v>0.01006421882647396</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.308257657456268</v>
+        <v>2.938488047336887</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01006421882647396</v>
+        <v>0.9513238921993478</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.938488047336887</v>
+        <v>1.701180854193688</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9513238921993478</v>
+        <v>3</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.701180854193688</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1875906253629893</v>
       </c>
     </row>
@@ -5356,72 +5332,66 @@
         <v>1.641319767536252e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4780772281235621</v>
+        <v>8.035150225850182e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.1780202087760232</v>
+        <v>4.26076696893295e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.035150225850182e-07</v>
+        <v>-0.07545432294964168</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.26076696893295e-06</v>
+        <v>0.1681962051291354</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.07545432294964168</v>
+        <v>0.03388631681010602</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1681962051291354</v>
+        <v>1.788178081125184</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03388631681010602</v>
+        <v>1.633604418978502</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.746413853014366</v>
+        <v>4.16688216343687</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.633604418978502</v>
+        <v>3.701347230448412e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.16688216343687</v>
+        <v>61569361.52765597</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.701347230448412e-15</v>
+        <v>1.885665831061643e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>61569361.52765597</v>
+        <v>14.03101629471424</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.885665831061643e-06</v>
+        <v>0.0001583883805614754</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>14.03101629471424</v>
+        <v>8.039464152963134</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001583883805614754</v>
+        <v>1.587149954016291</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.039464152963134</v>
+        <v>0.01023711364551513</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.587149954016291</v>
+        <v>2.980645287866537</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01023711364551513</v>
+        <v>0.9519021168444532</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.980645287866537</v>
+        <v>1.694240461496716</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9519021168444532</v>
+        <v>3</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.694240461496716</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1781762819895616</v>
       </c>
     </row>
@@ -5436,72 +5406,66 @@
         <v>1.522431339378327e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2088106568204597</v>
+        <v>6.374809243044729e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.088866151238889</v>
+        <v>4.249761291881661e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.374809243044729e-07</v>
+        <v>-0.06459386878505174</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.249761291881661e-06</v>
+        <v>0.1236701307270523</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06459386878505174</v>
+        <v>0.0194168000428118</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1236701307270523</v>
+        <v>1.787841703091989</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0194168000428118</v>
+        <v>1.620634771912707</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.744471227319225</v>
+        <v>4.277067281500676</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.620634771912707</v>
+        <v>3.513096690459938e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.277067281500676</v>
+        <v>64890213.50428515</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.513096690459938e-15</v>
+        <v>1.790737332718732e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>64890213.50428515</v>
+        <v>14.79273608609198</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.790737332718732e-06</v>
+        <v>0.0001587046702044748</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>14.79273608609198</v>
+        <v>9.257878165595359</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001587046702044748</v>
+        <v>1.240462593645689</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.257878165595359</v>
+        <v>0.01360230877539761</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.240462593645689</v>
+        <v>2.812130466391652</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01360230877539761</v>
+        <v>0.9540606635513679</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.812130466391652</v>
+        <v>1.677742567271051</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9540606635513679</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.677742567271051</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1753650961147455</v>
       </c>
     </row>
@@ -5516,72 +5480,66 @@
         <v>1.458749719926879e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1191746360704048</v>
+        <v>5.304582326582356e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.413167996366347</v>
+        <v>4.240790009275596e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.304582326582356e-07</v>
+        <v>-0.05660173406343262</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.240790009275596e-06</v>
+        <v>0.0946540611839</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05660173406343262</v>
+        <v>0.01214168990931937</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.0946540611839</v>
+        <v>1.800239569674662</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01214168990931937</v>
+        <v>1.702053519331918</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.761101811342424</v>
+        <v>4.332212509493268</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.702053519331918</v>
+        <v>3.424228700450149e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.332212509493268</v>
+        <v>68427396.11478576</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.424228700450149e-15</v>
+        <v>1.703356325019965e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>68427396.11478576</v>
+        <v>16.03329528377712</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.703356325019965e-06</v>
+        <v>0.0001600041827339469</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>16.03329528377712</v>
+        <v>10.29159195135277</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001600041827339469</v>
+        <v>1.133297186577668</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.29159195135277</v>
+        <v>0.01694714140497022</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.133297186577668</v>
+        <v>2.578783452321221</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01694714140497022</v>
+        <v>0.9541190216767685</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.578783452321221</v>
+        <v>1.666844234554305</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9541190216767685</v>
+        <v>20</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.666844234554305</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1810525319911229</v>
       </c>
     </row>
@@ -5596,72 +5554,66 @@
         <v>1.423345416178849e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1132698183781129</v>
+        <v>4.683666424328672e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.520263158233087</v>
+        <v>4.23301371790232e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.683666424328672e-07</v>
+        <v>-0.05206111161133074</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.23301371790232e-06</v>
+        <v>0.08289910803884358</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05206111161133074</v>
+        <v>0.009575326723954369</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08289910803884358</v>
+        <v>1.791796448752015</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009575326723954369</v>
+        <v>1.687712670672401</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.76003138697651</v>
+        <v>4.32683231231684</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.687712670672401</v>
+        <v>3.432749705335626e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.32683231231684</v>
+        <v>69279092.47026107</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.432749705335626e-15</v>
+        <v>1.677943176527553e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>69279092.47026107</v>
+        <v>16.4758002670434</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.677943176527553e-06</v>
+        <v>0.000151839444348195</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>16.4758002670434</v>
+        <v>9.781305177706606</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000151839444348195</v>
+        <v>1.151114694628805</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.781305177706606</v>
+        <v>0.01452707651852422</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.151114694628805</v>
+        <v>2.693851884092316</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01452707651852422</v>
+        <v>0.9550150719233151</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.693851884092316</v>
+        <v>1.673570586742949</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9550150719233151</v>
+        <v>22</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.673570586742949</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1859701472692524</v>
       </c>
     </row>
@@ -5676,72 +5628,66 @@
         <v>1.401490872177345e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.139714499959665</v>
+        <v>4.293757255388498e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.553959488396651</v>
+        <v>4.225872254857431e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.293757255388498e-07</v>
+        <v>-0.04935947931898432</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.225872254857431e-06</v>
+        <v>0.07880306524679359</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04935947931898432</v>
+        <v>0.008643197892596658</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.07880306524679359</v>
+        <v>1.792877169677206</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008643197892596658</v>
+        <v>1.668717192468019</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.759396281020553</v>
+        <v>4.312994395701166</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.668717192468019</v>
+        <v>3.454812478098918e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.312994395701166</v>
+        <v>69147090.86710364</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.454812478098918e-15</v>
+        <v>1.685173557976281e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>69147090.86710364</v>
+        <v>16.51856460370098</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.685173557976281e-06</v>
+        <v>0.00014474197343787</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>16.51856460370098</v>
+        <v>8.716948247484456</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.00014474197343787</v>
+        <v>1.258525893124511</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.716948247484456</v>
+        <v>0.01099824588214201</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.258525893124511</v>
+        <v>2.927270671264637</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01099824588214201</v>
+        <v>0.9555190713872572</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.927270671264637</v>
+        <v>1.675371955671218</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9555190713872572</v>
+        <v>22</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.675371955671218</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1911159476816548</v>
       </c>
     </row>
@@ -5756,72 +5702,66 @@
         <v>1.386867408984464e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1807160437622355</v>
+        <v>4.04350512371163e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.553386180889262</v>
+        <v>4.21911830142459e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.04350512371163e-07</v>
+        <v>-0.04770077715177243</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.21911830142459e-06</v>
+        <v>0.07773867778830723</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04770077715177243</v>
+        <v>0.008317509880011974</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07773867778830723</v>
+        <v>1.807139354255096</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008317509880011974</v>
+        <v>1.627375762057045</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.775352001445474</v>
+        <v>4.379942968874641</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.627375762057045</v>
+        <v>3.350004234182031e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.379942968874641</v>
+        <v>75153187.78407803</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.350004234182031e-15</v>
+        <v>1.564747911558741e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>75153187.78407803</v>
+        <v>18.92082938893183</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.564747911558741e-06</v>
+        <v>0.0001556199702869796</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>18.92082938893183</v>
+        <v>8.321115809540249</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001556199702869796</v>
+        <v>1.575179604304793</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.321115809540249</v>
+        <v>0.01077527743194348</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.575179604304793</v>
+        <v>3.043946154326648</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01077527743194348</v>
+        <v>0.9566423672728583</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.043946154326648</v>
+        <v>1.653762628390425</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9566423672728583</v>
+        <v>22</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.653762628390425</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2049186765478999</v>
       </c>
     </row>
@@ -5836,72 +5776,66 @@
         <v>1.37561027487121e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2285267481157824</v>
+        <v>3.886812726903878e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.533713597402955</v>
+        <v>4.212606382896106e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.886812726903878e-07</v>
+        <v>-0.04671531709629079</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.212606382896106e-06</v>
+        <v>0.07789522648617923</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04671531709629079</v>
+        <v>0.00824978632716466</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07789522648617923</v>
+        <v>1.811151415348545</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.00824978632716466</v>
+        <v>1.584350616847571</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.77916146567275</v>
+        <v>4.685164635722721</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.584350616847571</v>
+        <v>2.927740322700575e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.685164635722721</v>
+        <v>85835030.63122451</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.927740322700575e-15</v>
+        <v>1.369569147506357e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>85835030.63122451</v>
+        <v>21.57057325948039</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.369569147506357e-06</v>
+        <v>0.0001763984658748923</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>21.57057325948039</v>
+        <v>9.855441333208343</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001763984658748923</v>
+        <v>1.386374869842366</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.855441333208343</v>
+        <v>0.01713353428192764</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.386374869842366</v>
+        <v>2.941048941679271</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01713353428192764</v>
+        <v>0.9562492724464036</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.941048941679271</v>
+        <v>1.66010580053589</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9562492724464036</v>
+        <v>22</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.66010580053589</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2589469658633904</v>
       </c>
     </row>
@@ -5916,72 +5850,66 @@
         <v>1.364968142646653e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2795712208246159</v>
+        <v>3.870641318932874e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.501774772712945</v>
+        <v>4.206235606055636e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.870641318932874e-07</v>
+        <v>-0.04635398847302291</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.206235606055636e-06</v>
+        <v>0.07858489947533998</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04635398847302291</v>
+        <v>0.008324505524741956</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.07858489947533998</v>
+        <v>1.825413918307285</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.008324505524741956</v>
+        <v>1.638927685420171</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.798699071836401</v>
+        <v>4.266681967296338</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.638927685420171</v>
+        <v>2.364111377819679e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.266681967296338</v>
+        <v>105572460.3716635</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.364111377819679e-15</v>
+        <v>1.116366202168936e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>105572460.3716635</v>
+        <v>26.34930830185533</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.116366202168936e-06</v>
+        <v>0.0002139896275139241</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>26.34930830185533</v>
+        <v>13.76859515329717</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002139896275139241</v>
+        <v>0.9718284621117551</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>13.76859515329717</v>
+        <v>0.04056691511813577</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.9718284621117551</v>
+        <v>2.3972878044244</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.04056691511813577</v>
+        <v>0.9527200941948925</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.3972878044244</v>
+        <v>1.638127184983511</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9527200941948925</v>
+        <v>22</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.638127184983511</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3970925163660001</v>
       </c>
     </row>
@@ -5996,72 +5924,66 @@
         <v>1.352398704568863e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3318177334245739</v>
+        <v>3.870641318932874e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.462042936685028</v>
+        <v>4.199930576739012e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.870641318932874e-07</v>
+        <v>-0.04649606730545417</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.199930576739012e-06</v>
+        <v>0.07948841119073001</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04649606730545417</v>
+        <v>0.008480485368678733</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07948841119073001</v>
+        <v>1.882870851083227</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.008480485368678733</v>
+        <v>1.827315908149326</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.877942824878125</v>
+        <v>4.027245839874928</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.827315908149326</v>
+        <v>2.495080131473542e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.027245839874928</v>
+        <v>99548437.75058252</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.495080131473542e-15</v>
+        <v>1.197672736603999e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>99548437.75058252</v>
+        <v>24.72597328336631</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.197672736603999e-06</v>
+        <v>0.0002370507371298737</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>24.72597328336631</v>
+        <v>13.71675498125</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002370507371298737</v>
+        <v>1.074409140885861</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>13.71675498125</v>
+        <v>0.04460094618898837</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.074409140885861</v>
+        <v>2.551824686574713</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.04460094618898837</v>
+        <v>0.9564054515772686</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.551824686574713</v>
+        <v>1.46260606199404</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9564054515772686</v>
+        <v>19</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.46260606199404</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.5460605477238424</v>
       </c>
     </row>
@@ -6076,72 +5998,66 @@
         <v>1.335326766719784e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3834673118293625</v>
+        <v>3.870641318932874e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.419565713227565</v>
+        <v>4.193651645354406e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.870641318932874e-07</v>
+        <v>-0.04686256841786633</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.193651645354406e-06</v>
+        <v>0.08076241121323501</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04686256841786633</v>
+        <v>0.008718571614053238</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08076241121323501</v>
+        <v>1.900928206913197</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.008718571614053238</v>
+        <v>1.624070839983647</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.911144907035968</v>
+        <v>5.183161625333572</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.624070839983647</v>
+        <v>1.685500554497153e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.183161625333572</v>
+        <v>144718175.8459283</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.685500554497153e-15</v>
+        <v>8.265471532298369e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>144718175.8459283</v>
+        <v>35.3000287462298</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.265471532298369e-07</v>
+        <v>0.0002103568405050428</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>35.3000287462298</v>
+        <v>14.43537410236364</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002103568405050428</v>
+        <v>1.05810949729814</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>14.43537410236364</v>
+        <v>0.04383416378332151</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.05810949729814</v>
+        <v>2.931796942426713</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.04383416378332151</v>
+        <v>0.9557823984172831</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.931796942426713</v>
+        <v>1.424029609986951</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9557823984172831</v>
+        <v>19</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.424029609986951</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.000593142072052</v>
       </c>
     </row>
@@ -6156,72 +6072,66 @@
         <v>1.312237800394247e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4335715096518685</v>
+        <v>3.87028472375182e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.378410478674708</v>
+        <v>4.187461913035954e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.87028472375182e-07</v>
+        <v>-0.04635866474749929</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.187461913035954e-06</v>
+        <v>0.08385060093332336</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04635866474749929</v>
+        <v>0.009179354055704251</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08385060093332336</v>
+        <v>1.908501595356407</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.009179354055704251</v>
+        <v>1.75503284520397</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.928013974623133</v>
+        <v>4.330945702486506</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.75503284520397</v>
+        <v>1.194931695349304e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.330945702486506</v>
+        <v>194452587.31563</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.194931695349304e-15</v>
+        <v>6.130248158246058e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>194452587.31563</v>
+        <v>45.18252869053615</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.130248158246058e-07</v>
+        <v>0.0001860008089231736</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>45.18252869053615</v>
+        <v>14.31107687362356</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001860008089231736</v>
+        <v>0.9930565042583082</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>14.31107687362356</v>
+        <v>0.03809425303165866</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>0.9930565042583082</v>
+        <v>3.083543884386959</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03809425303165866</v>
+        <v>0.9566786198019935</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.083543884386959</v>
+        <v>1.256546236780556</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9566786198019935</v>
+        <v>19</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.256546236780556</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.206368229120345</v>
       </c>
     </row>
@@ -6236,72 +6146,66 @@
         <v>1.283585565009737e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.483215619640152</v>
+        <v>3.835688396681237e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.335753303181133</v>
+        <v>4.181541136519842e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.835688396681237e-07</v>
+        <v>-0.04473428758656441</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.181541136519842e-06</v>
+        <v>0.08873217868206282</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04473428758656441</v>
+        <v>0.009873715101399371</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08873217868206282</v>
+        <v>1.852708328079676</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.009873715101399371</v>
+        <v>1.783973488660803</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.845176734470727</v>
+        <v>5.109937880196068</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.783973488660803</v>
+        <v>9.588098884966091e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.109937880196068</v>
+        <v>241748051.0335367</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>9.588098884966091e-16</v>
+        <v>4.875541564795106e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>241748051.0335367</v>
+        <v>56.03488273186591</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.875541564795106e-07</v>
+        <v>0.00018622600942625</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>56.03488273186591</v>
+        <v>13.25178225143172</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.00018622600942625</v>
+        <v>1.012364666310476</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.25178225143172</v>
+        <v>0.03270309976308404</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.012364666310476</v>
+        <v>2.972463601383806</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.03270309976308404</v>
+        <v>0.954944188148544</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.972463601383806</v>
+        <v>1.453089129569146</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.954944188148544</v>
+        <v>20</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.453089129569146</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.037460144966725</v>
       </c>
     </row>
@@ -6316,72 +6220,66 @@
         <v>1.251298478605695e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5329980178292736</v>
+        <v>3.767375118415251e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.28634334972173</v>
+        <v>4.175955085773328e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.767375118415251e-07</v>
+        <v>-0.04356148502818883</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.175955085773328e-06</v>
+        <v>0.09259282903382456</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04356148502818883</v>
+        <v>0.0104708874536548</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.09259282903382456</v>
+        <v>1.841167580121356</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0104708874536548</v>
+        <v>1.881785555906463</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.820247026508938</v>
+        <v>4.767698362575747</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.881785555906463</v>
+        <v>1.623473628934182e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.767698362575747</v>
+        <v>144294486.5280585</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.623473628934182e-15</v>
+        <v>8.163385804813066e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>144294486.5280585</v>
+        <v>33.80218020133623</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>8.163385804813066e-07</v>
+        <v>0.0002226467861025896</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>33.80218020133623</v>
+        <v>9.399572505412578</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002226467861025896</v>
+        <v>1.82598590597757</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.399572505412578</v>
+        <v>0.01967128067114972</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.82598590597757</v>
+        <v>3.004307175898293</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01967128067114972</v>
+        <v>0.9558179045962998</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.004307175898293</v>
+        <v>1.630565583001876</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9558179045962998</v>
+        <v>20</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.630565583001876</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.4964748117239176</v>
       </c>
     </row>
@@ -6396,72 +6294,66 @@
         <v>1.217528567900474e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5837291539702822</v>
+        <v>3.678341682484826e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.227612388641517</v>
+        <v>4.170603392888414e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.678341682484826e-07</v>
+        <v>-0.04320930968048711</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.170603392888414e-06</v>
+        <v>0.09546332955926855</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04320930968048711</v>
+        <v>0.01098010629721028</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09546332955926855</v>
+        <v>1.818512316610038</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01098010629721028</v>
+        <v>1.909774850158875</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.790610046870306</v>
+        <v>4.471243923905043</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.909774850158875</v>
+        <v>1.845891010642581e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.471243923905043</v>
+        <v>131383218.0490783</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.845891010642581e-15</v>
+        <v>8.931213388619515e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>131383218.0490783</v>
+        <v>31.86293994694293</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>8.931213388619515e-07</v>
+        <v>0.000158103815933426</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>31.86293994694293</v>
+        <v>8.87719639685205</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000158103815933426</v>
+        <v>1.58342482867445</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.87719639685205</v>
+        <v>0.01245931048194336</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.58342482867445</v>
+        <v>3.086819757532139</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01245931048194336</v>
+        <v>0.9546046276988024</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.086819757532139</v>
+        <v>1.609278956601421</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9546046276988024</v>
+        <v>20</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.609278956601421</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2971683257186605</v>
       </c>
     </row>
@@ -6838,7 +6730,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.437904557663763</v>
+        <v>1.468449428512501</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.14863196064982</v>
@@ -6927,7 +6819,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.452587597872337</v>
+        <v>1.478201878517565</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.945742916492273</v>
@@ -7016,7 +6908,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.4726622426391</v>
+        <v>1.496135328542141</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.179468808051078</v>
@@ -7105,7 +6997,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.443996719294767</v>
+        <v>1.468073153762981</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.298644665737049</v>
@@ -7194,7 +7086,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.466049796791298</v>
+        <v>1.489199086239775</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.28031282347994</v>
@@ -7283,7 +7175,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.453404433225749</v>
+        <v>1.476488264529268</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.223613267483386</v>
@@ -7372,7 +7264,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.45301567709878</v>
+        <v>1.47508358912196</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.175023115687121</v>
@@ -7461,7 +7353,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.49710133629636</v>
+        <v>1.515537901300502</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.21543348819247</v>
@@ -7550,7 +7442,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.493623596328634</v>
+        <v>1.510629238970324</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.127435856654284</v>
@@ -7639,7 +7531,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.506359261240329</v>
+        <v>1.524300083771646</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.193882180624942</v>
@@ -7728,7 +7620,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.50823138031089</v>
+        <v>1.524598246415625</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.171402709914203</v>
@@ -7817,7 +7709,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.501746419412137</v>
+        <v>1.518504519663253</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.211971020077777</v>
@@ -7906,7 +7798,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.529407097640199</v>
+        <v>1.543760510018736</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.167989437705205</v>
@@ -7995,7 +7887,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.533076272605009</v>
+        <v>1.546135704775531</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.185025314093961</v>
@@ -8084,7 +7976,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.547416212402043</v>
+        <v>1.557027966007477</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.201330008325071</v>
@@ -8173,7 +8065,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.544685658884869</v>
+        <v>1.555923711685989</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.188761194856914</v>
@@ -8262,7 +8154,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.549675566981552</v>
+        <v>1.560748234807144</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.193153958886293</v>
@@ -8351,7 +8243,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.566487112406105</v>
+        <v>1.579855572061053</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.168869509873796</v>
@@ -8440,7 +8332,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.678041282868697</v>
+        <v>1.678543475814326</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.927567269708198</v>
@@ -8529,7 +8421,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.690664150660469</v>
+        <v>1.691200764667135</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.269475190732902</v>
@@ -8618,7 +8510,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.7147160118009</v>
+        <v>1.708710704521596</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.230726954579321</v>
@@ -8707,7 +8599,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.692960360385879</v>
+        <v>1.687003855039146</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.022614887020655</v>
@@ -8796,7 +8688,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.697471215604432</v>
+        <v>1.689207874627188</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.0028123377934</v>
@@ -8885,7 +8777,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.712158154835626</v>
+        <v>1.705646676776854</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.175190575695655</v>
@@ -8974,7 +8866,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.708197123467059</v>
+        <v>1.700292144356017</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.932971737784859</v>
@@ -9063,7 +8955,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.704556303826814</v>
+        <v>1.701907894878969</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.767669617248334</v>
@@ -9152,7 +9044,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.71725604940591</v>
+        <v>1.706242949564016</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.157562784802755</v>
@@ -9241,7 +9133,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.705791491444088</v>
+        <v>1.687627175145474</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.905976678559115</v>
@@ -9330,7 +9222,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.680729871800537</v>
+        <v>1.672247108340019</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.062349215807944</v>
@@ -9419,7 +9311,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.61930080412268</v>
+        <v>1.625569218871633</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.425149726413531</v>
@@ -9508,7 +9400,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.619971899373682</v>
+        <v>1.629667506944362</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.37629088755868</v>
@@ -9597,7 +9489,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.629207756294496</v>
+        <v>1.638053480217715</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.395371399438354</v>
@@ -9686,7 +9578,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.631629383983272</v>
+        <v>1.638675793350906</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.43384591935826</v>
@@ -9775,7 +9667,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.611631429351353</v>
+        <v>1.617496622980815</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.473463881114747</v>
@@ -9864,7 +9756,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.61679287772371</v>
+        <v>1.624423446806875</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.417153615188213</v>
@@ -9953,7 +9845,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613927556576194</v>
+        <v>1.620138216691138</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.430253769000322</v>
@@ -10042,7 +9934,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.641173264910403</v>
+        <v>1.639634822335219</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.406887807990317</v>
@@ -10131,7 +10023,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.625450221283404</v>
+        <v>1.627861044866771</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.529139746716845</v>
@@ -10220,7 +10112,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.612065070058871</v>
+        <v>1.619033965359391</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.400546068151725</v>
@@ -10309,7 +10201,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607408195932068</v>
+        <v>1.610086657534505</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.515672469512869</v>
@@ -10398,7 +10290,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.615749544285534</v>
+        <v>1.610549873834496</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.454585669942384</v>
@@ -10487,7 +10379,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.616340144759875</v>
+        <v>1.61410978410936</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.458704034617956</v>
@@ -10576,7 +10468,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.643556800433164</v>
+        <v>1.637750508392706</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.430205249560265</v>
@@ -10665,7 +10557,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.621806009769726</v>
+        <v>1.623490431462265</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.542719456148028</v>
@@ -10754,7 +10646,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.67152970597256</v>
+        <v>1.662636274242322</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.121003745846206</v>
@@ -10843,7 +10735,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.676333368439572</v>
+        <v>1.661733554185565</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.025301279017661</v>
@@ -10932,7 +10824,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.674203000784472</v>
+        <v>1.659513839128855</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.949130583380821</v>
@@ -11021,7 +10913,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.684760705722602</v>
+        <v>1.667856509835927</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.495668371498549</v>
@@ -11110,7 +11002,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.605816527158057</v>
+        <v>1.600300173376948</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.988968733758486</v>
@@ -11199,7 +11091,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.610843155433667</v>
+        <v>1.605928132751655</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.986392848869744</v>
@@ -11288,7 +11180,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.611505176516639</v>
+        <v>1.611153378163648</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.983052198137975</v>
@@ -11377,7 +11269,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.603372828703362</v>
+        <v>1.605285426806394</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.982258763085543</v>
@@ -11466,7 +11358,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.612412456194616</v>
+        <v>1.615321057661931</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.971745177902206</v>
@@ -11555,7 +11447,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.625549235343636</v>
+        <v>1.621340649542354</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.963829594086282</v>
@@ -11644,7 +11536,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.619893420137208</v>
+        <v>1.620782907099975</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.969123728661043</v>
@@ -11733,7 +11625,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.616375376219654</v>
+        <v>1.622025664116478</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.962742702746006</v>
@@ -11822,7 +11714,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.614483921864585</v>
+        <v>1.621863570846979</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.976149069320323</v>
@@ -11911,7 +11803,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.569790201184794</v>
+        <v>1.57901379322877</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.958387032938249</v>
@@ -12000,7 +11892,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.565656981012342</v>
+        <v>1.578598660950599</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.021312017963412</v>
@@ -12089,7 +11981,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.478586040666566</v>
+        <v>1.488588005742774</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.032432555044954</v>
@@ -12178,7 +12070,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.464938929635619</v>
+        <v>1.472673858078268</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.026112022706419</v>
@@ -12464,7 +12356,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.407310433622427</v>
+        <v>1.402315610302528</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.1523537621081</v>
@@ -12553,7 +12445,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.402107794150577</v>
+        <v>1.39581097924673</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.043653523777513</v>
@@ -12642,7 +12534,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.414276081516151</v>
+        <v>1.409262862864656</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.149046256310214</v>
@@ -12731,7 +12623,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.36066394860207</v>
+        <v>1.357492592724467</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.070998923936935</v>
@@ -12820,7 +12712,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.362997113742336</v>
+        <v>1.361026949308946</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.112785304070031</v>
@@ -12909,7 +12801,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.377290115089017</v>
+        <v>1.373070386760236</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.148158799446321</v>
@@ -12998,7 +12890,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.384322784736849</v>
+        <v>1.39333509958856</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.890967923661637</v>
@@ -13087,7 +12979,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.416584445585452</v>
+        <v>1.42250492394253</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.933834984590118</v>
@@ -13176,7 +13068,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.37767515461105</v>
+        <v>1.382993460989994</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.973034308280956</v>
@@ -13265,7 +13157,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.389169229923626</v>
+        <v>1.392267278530825</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.004452136724687</v>
@@ -13354,7 +13246,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.38374263328717</v>
+        <v>1.385175773308792</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.986191935483044</v>
@@ -13443,7 +13335,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.372409295978047</v>
+        <v>1.376150494808366</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.980912398580944</v>
@@ -13532,7 +13424,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.362382523697241</v>
+        <v>1.364535983422382</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.016779994210768</v>
@@ -13621,7 +13513,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.359171036769269</v>
+        <v>1.365227642577332</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.980519025038441</v>
@@ -13710,7 +13602,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.367217847580843</v>
+        <v>1.372691550552392</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.993336566574655</v>
@@ -13799,7 +13691,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.36987929960567</v>
+        <v>1.377114271339784</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.028614435451852</v>
@@ -13888,7 +13780,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.369728199234327</v>
+        <v>1.375186521870529</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.990868934994078</v>
@@ -13977,7 +13869,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.38256558052215</v>
+        <v>1.384609908547653</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.982112827302817</v>
@@ -14066,7 +13958,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.438984984298386</v>
+        <v>1.444697196252603</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.197588085369714</v>
@@ -14155,7 +14047,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.444071796776607</v>
+        <v>1.45199733986714</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.231027299259548</v>
@@ -14244,7 +14136,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.45052693618544</v>
+        <v>1.454935858032483</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.23575467565469</v>
@@ -14333,7 +14225,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.441006921181329</v>
+        <v>1.446128206284082</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.234053461824909</v>
@@ -14422,7 +14314,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.44270316212374</v>
+        <v>1.451945203660297</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.238130097193498</v>
@@ -14511,7 +14403,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.500496558148171</v>
+        <v>1.4933918384885</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.475215277077478</v>
@@ -14600,7 +14492,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.489362239368015</v>
+        <v>1.482821247795017</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.326071240025271</v>
@@ -14689,7 +14581,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.493564472914015</v>
+        <v>1.484205207160183</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.3164587616334</v>
@@ -14778,7 +14670,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.50058343703154</v>
+        <v>1.485281150293422</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.257809297904507</v>
@@ -14867,7 +14759,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.516246196051113</v>
+        <v>1.494855847531954</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.632701135033636</v>
@@ -14956,7 +14848,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.497913365948096</v>
+        <v>1.482524206044232</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.686392626983069</v>
@@ -15045,7 +14937,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.477143667138377</v>
+        <v>1.465479575916036</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.691952000548663</v>
@@ -15134,7 +15026,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.483725996205948</v>
+        <v>1.470193508133112</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.602631951828675</v>
@@ -15223,7 +15115,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.489963791902537</v>
+        <v>1.476935617075397</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.709703808267546</v>
@@ -15312,7 +15204,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.514429924352826</v>
+        <v>1.49210965311767</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.516165489039332</v>
@@ -15401,7 +15293,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.498749898823075</v>
+        <v>1.479705595264418</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.98250821560414</v>
@@ -15490,7 +15382,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.506761635684698</v>
+        <v>1.482140330497357</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.852030169874005</v>
@@ -15579,7 +15471,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.510574820936032</v>
+        <v>1.48879226624062</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.823133385314061</v>
@@ -15668,7 +15560,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.523374854191179</v>
+        <v>1.498191777811316</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.687863348933974</v>
@@ -15757,7 +15649,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.517506547530658</v>
+        <v>1.493422530291466</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.928283892925521</v>
@@ -15846,7 +15738,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.504921461891479</v>
+        <v>1.490072415894164</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.951362646541391</v>
@@ -15935,7 +15827,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.512005877442455</v>
+        <v>1.500854178127155</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.655601074298727</v>
@@ -16024,7 +15916,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.508841535344401</v>
+        <v>1.499504194859118</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.938349766920024</v>
@@ -16113,7 +16005,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.515445387100192</v>
+        <v>1.508553274367982</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.701808303274654</v>
@@ -16202,7 +16094,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.539362613878833</v>
+        <v>1.530544696044241</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.621522207225791</v>
@@ -16291,7 +16183,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.52278838455838</v>
+        <v>1.519153200597148</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.916968812617237</v>
@@ -16380,7 +16272,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.552456805051308</v>
+        <v>1.54228588810632</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.762187798814265</v>
@@ -16469,7 +16361,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.55707491231884</v>
+        <v>1.550412506435598</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.447693878998208</v>
@@ -16558,7 +16450,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.553084189266809</v>
+        <v>1.547978669687379</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.908605230383926</v>
@@ -16647,7 +16539,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.56849496663342</v>
+        <v>1.565629583877012</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.483464081860995</v>
@@ -16736,7 +16628,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.559103468746464</v>
+        <v>1.559291757976071</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.949084253939687</v>
@@ -16825,7 +16717,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.553371279623846</v>
+        <v>1.552587601457886</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.703662623222629</v>
@@ -16914,7 +16806,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.557084988242725</v>
+        <v>1.558810942115884</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.815210594467428</v>
@@ -17003,7 +16895,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.552563450227127</v>
+        <v>1.55078695385567</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.917441012350388</v>
@@ -17092,7 +16984,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.576208677137263</v>
+        <v>1.571422800876214</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.95852472938536</v>
@@ -17181,7 +17073,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.58491668233512</v>
+        <v>1.57822761447205</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.952155892892543</v>
@@ -17270,7 +17162,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.584770927173728</v>
+        <v>1.575614642645493</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.964388419571068</v>
@@ -17359,7 +17251,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.594486337549167</v>
+        <v>1.585912883993459</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.793158161017186</v>
@@ -17448,7 +17340,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.607704631791417</v>
+        <v>1.596784288206943</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.850389249625724</v>
@@ -17537,7 +17429,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.587003446624936</v>
+        <v>1.579395818864568</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.623898521765692</v>
@@ -17626,7 +17518,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.567944633180011</v>
+        <v>1.558080858052413</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.953664749279908</v>
@@ -17715,7 +17607,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.262324756092339</v>
+        <v>1.251822665385568</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.439908200981561</v>
@@ -17804,7 +17696,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.258999748686757</v>
+        <v>1.249275024890262</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.443735781829752</v>
@@ -18090,7 +17982,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.521891541854983</v>
+        <v>1.542555549441852</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.929877596557189</v>
@@ -18179,7 +18071,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523351831268083</v>
+        <v>1.544993726574822</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.810980318303994</v>
@@ -18268,7 +18160,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.544387990549217</v>
+        <v>1.5656278997076</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.87478653098837</v>
@@ -18357,7 +18249,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.549753215981404</v>
+        <v>1.573323871391679</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.900525241902035</v>
@@ -18446,7 +18338,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.570910462253054</v>
+        <v>1.594733011023683</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.773180805464682</v>
@@ -18535,7 +18427,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.55352408172127</v>
+        <v>1.573939160157996</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.917276198830385</v>
@@ -18624,7 +18516,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.555806239678872</v>
+        <v>1.577059969642981</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.739595258936019</v>
@@ -18713,7 +18605,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.562451401360808</v>
+        <v>1.582037920494986</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.911604218902814</v>
@@ -18802,7 +18694,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.569694988169448</v>
+        <v>1.591989955089155</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.581294416702321</v>
@@ -18891,7 +18783,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.554399198607828</v>
+        <v>1.581200285149761</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.01369168301749</v>
@@ -18980,7 +18872,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.564475345309435</v>
+        <v>1.589565505326262</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.659090000173766</v>
@@ -19069,7 +18961,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.554013110278861</v>
+        <v>1.578798377010768</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.976745199678012</v>
@@ -19158,7 +19050,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.569211233959231</v>
+        <v>1.588051990704767</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.122081019935165</v>
@@ -19247,7 +19139,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.560537233935728</v>
+        <v>1.585707708336212</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.659995054578222</v>
@@ -19336,7 +19228,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.581695767364788</v>
+        <v>1.605132391820056</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.816106495036316</v>
@@ -19425,7 +19317,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.579520946517838</v>
+        <v>1.600519139836729</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.777664464383269</v>
@@ -19514,7 +19406,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.585902178960223</v>
+        <v>1.605607438772069</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.966927239566139</v>
@@ -19603,7 +19495,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.590104522967604</v>
+        <v>1.608387560565964</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.661474593869017</v>
@@ -19692,7 +19584,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.597559720676801</v>
+        <v>1.612438312868647</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.878884200992244</v>
@@ -19781,7 +19673,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.586009939031219</v>
+        <v>1.603671114899626</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.785879515398867</v>
@@ -19870,7 +19762,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.596944904008813</v>
+        <v>1.612990764199178</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.297784029281839</v>
@@ -19959,7 +19851,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.581870482507672</v>
+        <v>1.596364084568868</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.02316170574411</v>
@@ -20048,7 +19940,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.573934194962397</v>
+        <v>1.58811157013628</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.071584573923512</v>
@@ -20137,7 +20029,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.584607535692359</v>
+        <v>1.595255252913347</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.808197688849229</v>
@@ -20226,7 +20118,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.594612340514571</v>
+        <v>1.59979119639593</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.852101018145182</v>
@@ -20315,7 +20207,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.583288108191094</v>
+        <v>1.591019674606276</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.766744910915005</v>
@@ -20404,7 +20296,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.588942838157805</v>
+        <v>1.59285544734492</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.769962200867325</v>
@@ -20493,7 +20385,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.601638536102637</v>
+        <v>1.593848893571066</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.64878595102387</v>
@@ -20582,7 +20474,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.601287217930223</v>
+        <v>1.598151879901665</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.73951277697422</v>
@@ -20671,7 +20563,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585182012184936</v>
+        <v>1.58194485392546</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.735930301255818</v>
@@ -20760,7 +20652,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.594280636114633</v>
+        <v>1.587629291141505</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.662896236212136</v>
@@ -20849,7 +20741,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.592022242853968</v>
+        <v>1.584661869392415</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.804697917323177</v>
@@ -20938,7 +20830,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.581977920194836</v>
+        <v>1.576471201626536</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.614294271417502</v>
@@ -21027,7 +20919,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.563281496218664</v>
+        <v>1.556486528403602</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.472461390828514</v>
@@ -21116,7 +21008,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.569733091894737</v>
+        <v>1.558171640353269</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.510011271346424</v>
@@ -21205,7 +21097,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.577291817697977</v>
+        <v>1.562930054858543</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.64358297832289</v>
@@ -21294,7 +21186,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.592585070455517</v>
+        <v>1.577094761510078</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.526660430922926</v>
@@ -21383,7 +21275,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.578845507245546</v>
+        <v>1.565977502914846</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.64432255888744</v>
@@ -21472,7 +21364,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.536048732892817</v>
+        <v>1.532204956761559</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.674498049549137</v>
@@ -21561,7 +21453,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.52464091720853</v>
+        <v>1.521220238454767</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.491735403533849</v>
@@ -21650,7 +21542,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.5227911345828</v>
+        <v>1.518515559851171</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.700783270239359</v>
@@ -21739,7 +21631,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.515523735684307</v>
+        <v>1.5177376450856</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.657194701937181</v>
@@ -21828,7 +21720,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.508389428676497</v>
+        <v>1.508077995511564</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.572895170491705</v>
@@ -21917,7 +21809,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.487758177848278</v>
+        <v>1.49436114621503</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.62904127180414</v>
@@ -22006,7 +21898,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.503662513280597</v>
+        <v>1.511558036623406</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.660148271851102</v>
@@ -22095,7 +21987,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.493318179004623</v>
+        <v>1.501304137330959</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.646212164703837</v>
@@ -22184,7 +22076,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.486024293932001</v>
+        <v>1.493185582468334</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.518298879707669</v>
@@ -22273,7 +22165,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.491340790967266</v>
+        <v>1.495113805494935</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.375842172996236</v>
@@ -22362,7 +22254,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.474065897810881</v>
+        <v>1.479955148241322</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.59044263182013</v>
@@ -22451,7 +22343,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.47580991925789</v>
+        <v>1.478937657450863</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.611986834077745</v>
@@ -22540,7 +22432,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.462819506732072</v>
+        <v>1.471662764894245</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.476162322773126</v>
@@ -22629,7 +22521,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.456077395511136</v>
+        <v>1.46480911254357</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.474919063296272</v>
@@ -22718,7 +22610,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.450029497659613</v>
+        <v>1.460395756371929</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.551805469743082</v>
@@ -22807,7 +22699,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.468361724347611</v>
+        <v>1.475262952146247</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.467822987405576</v>
@@ -22896,7 +22788,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.468982569114688</v>
+        <v>1.477339821662168</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.686840859629982</v>
@@ -22985,7 +22877,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.477324746120338</v>
+        <v>1.485342603756649</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.573403309525186</v>
@@ -23074,7 +22966,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.477192014811973</v>
+        <v>1.483951404142901</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.44789546460464</v>
@@ -23163,7 +23055,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.479599450488382</v>
+        <v>1.477559262599884</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.459736930779246</v>
@@ -23252,7 +23144,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.472169633706035</v>
+        <v>1.473016989604299</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.447937822796819</v>
@@ -23341,7 +23233,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.382833899308773</v>
+        <v>1.38507431641611</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.909080178859706</v>
@@ -23430,7 +23322,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.376250959492169</v>
+        <v>1.378761180124905</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.881436243835006</v>
@@ -23716,7 +23608,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.200215572857465</v>
+        <v>1.210430286112878</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.702035247228435</v>
@@ -23805,7 +23697,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.198786209861137</v>
+        <v>1.210951961870847</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.710554627669616</v>
@@ -23894,7 +23786,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.195657959644723</v>
+        <v>1.205443331415</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.703079460543672</v>
@@ -23983,7 +23875,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.199524024305153</v>
+        <v>1.208232683805843</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.671856304683891</v>
@@ -24072,7 +23964,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.232275359847626</v>
+        <v>1.241910807310496</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.62410259179312</v>
@@ -24161,7 +24053,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.186719057929053</v>
+        <v>1.190895185416995</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.706369897580676</v>
@@ -24250,7 +24142,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.174740462504194</v>
+        <v>1.179163517374594</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.685293128390462</v>
@@ -24339,7 +24231,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.177049301102798</v>
+        <v>1.181445299878634</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.695999646549346</v>
@@ -24428,7 +24320,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.224403461569989</v>
+        <v>1.230488040964872</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.570375306002006</v>
@@ -24517,7 +24409,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.229279067200381</v>
+        <v>1.237340000535699</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.663076135201115</v>
@@ -24606,7 +24498,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.230977549297107</v>
+        <v>1.238915545959655</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.649841026392858</v>
@@ -24695,7 +24587,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.208293997525485</v>
+        <v>1.212550894522982</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.684387002482449</v>
@@ -24784,7 +24676,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.208432924453436</v>
+        <v>1.2140579271467</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.68704422358847</v>
@@ -24873,7 +24765,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.212306553869624</v>
+        <v>1.217881809439912</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.655399218046049</v>
@@ -24962,7 +24854,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.272394285961202</v>
+        <v>1.28392889329959</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.569725350768869</v>
@@ -25051,7 +24943,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.275638944245115</v>
+        <v>1.287368672084527</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.629718249699339</v>
@@ -25140,7 +25032,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.250222328726756</v>
+        <v>1.257427997373988</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.639218506037767</v>
@@ -25229,7 +25121,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.251884827757332</v>
+        <v>1.260158095301363</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.641929061829127</v>
@@ -25318,7 +25210,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.241576116539295</v>
+        <v>1.250531651659056</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.648867880280935</v>
@@ -25407,7 +25299,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.242040160605021</v>
+        <v>1.250309761125757</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.607654659472689</v>
@@ -25496,7 +25388,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.32699831885918</v>
+        <v>1.339714790218041</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.689161195347542</v>
@@ -25585,7 +25477,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.259096848948539</v>
+        <v>1.26113646545485</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.625651169397972</v>
@@ -25674,7 +25566,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.232966994414327</v>
+        <v>1.240281597432943</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.616818016790788</v>
@@ -25763,7 +25655,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.234067708992312</v>
+        <v>1.239609294116923</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.616585765749276</v>
@@ -25852,7 +25744,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.227694920142194</v>
+        <v>1.232404938635541</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.624472834604383</v>
@@ -25941,7 +25833,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.225691943266597</v>
+        <v>1.232103122928801</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.598894386731619</v>
@@ -26030,7 +25922,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.24998350845048</v>
+        <v>1.258357642493535</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.565199571500925</v>
@@ -26119,7 +26011,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.254844050843024</v>
+        <v>1.222858994868002</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.630588766405054</v>
@@ -26208,7 +26100,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.184886725237379</v>
+        <v>1.185363395817277</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.650401071267041</v>
@@ -26297,7 +26189,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.191712185648211</v>
+        <v>1.19243458605928</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.650167855266699</v>
@@ -26386,7 +26278,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.195853968605366</v>
+        <v>1.196247217419717</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.647853839949567</v>
@@ -26475,7 +26367,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.206976112515135</v>
+        <v>1.210640553793934</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.628649250357665</v>
@@ -26564,7 +26456,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.204821926611944</v>
+        <v>1.202017535132196</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.6430997027467</v>
@@ -26653,7 +26545,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.165021845991243</v>
+        <v>1.160747029460228</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.701841443241485</v>
@@ -26742,7 +26634,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.169023631140867</v>
+        <v>1.165205908300816</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.700811959735737</v>
@@ -26831,7 +26723,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.174831624530948</v>
+        <v>1.170625203761481</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.704766976287023</v>
@@ -26920,7 +26812,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.215892988779646</v>
+        <v>1.216982095257051</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.670646119241257</v>
@@ -27009,7 +26901,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.219317556313838</v>
+        <v>1.2214929814589</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.634951928973031</v>
@@ -27098,7 +26990,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.175499655913135</v>
+        <v>1.173325602373269</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.707209616915546</v>
@@ -27187,7 +27079,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.175887073208494</v>
+        <v>1.176337198288002</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.715931159027828</v>
@@ -27276,7 +27168,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.177277661375238</v>
+        <v>1.177658019369628</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.697643328961608</v>
@@ -27365,7 +27257,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.179755137446949</v>
+        <v>1.181080368941023</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.714016497451585</v>
@@ -27454,7 +27346,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.214964341704992</v>
+        <v>1.217187239956268</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.562023306562045</v>
@@ -27543,7 +27435,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.181442409354752</v>
+        <v>1.18295196491282</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.71757885917058</v>
@@ -27632,7 +27524,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.17612556933021</v>
+        <v>1.175423370675974</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.707693789676945</v>
@@ -27721,7 +27613,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.174266827199696</v>
+        <v>1.17396897529815</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.717688144193922</v>
@@ -27810,7 +27702,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.177513000105102</v>
+        <v>1.178005960634519</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.719140174965128</v>
@@ -27899,7 +27791,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.207475738316165</v>
+        <v>1.200195317338675</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.548118999287364</v>
@@ -27988,7 +27880,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.176029966705371</v>
+        <v>1.177893505610095</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.684974119414853</v>
@@ -28077,7 +27969,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.169751350350426</v>
+        <v>1.17166818292933</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.692254262731905</v>
@@ -28166,7 +28058,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.169529510712496</v>
+        <v>1.172495836353789</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.702451733911261</v>
@@ -28255,7 +28147,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.17146288490291</v>
+        <v>1.174558313584257</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.704134381023179</v>
@@ -28344,7 +28236,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.18087616814356</v>
+        <v>1.183122015959634</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.727437138538079</v>
@@ -28433,7 +28325,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.202775616376492</v>
+        <v>1.20806187515324</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.656670419563359</v>
@@ -28522,7 +28414,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.200001667027207</v>
+        <v>1.206535859493507</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.662846424777559</v>
@@ -28611,7 +28503,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.203698801162224</v>
+        <v>1.208445566309757</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.651285606289682</v>
@@ -28700,7 +28592,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.200421234283026</v>
+        <v>1.205863979107684</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.658096093151516</v>
@@ -28789,7 +28681,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.172619671678296</v>
+        <v>1.172516700561587</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.730762969635593</v>
@@ -28878,7 +28770,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.197791738638099</v>
+        <v>1.204097362369845</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.665135527845872</v>
@@ -28967,7 +28859,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.191602627859923</v>
+        <v>1.194236874222775</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.705479288865817</v>
@@ -29056,7 +28948,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.198563726980346</v>
+        <v>1.200988533880385</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.715353093239976</v>
@@ -29342,7 +29234,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.544782443131064</v>
+        <v>1.562618120004841</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.682881598325712</v>
@@ -29431,7 +29323,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.545343347116967</v>
+        <v>1.562616425172469</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.551840822950712</v>
@@ -29520,7 +29412,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.545200788072678</v>
+        <v>1.557602562687965</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.627020316727354</v>
@@ -29609,7 +29501,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.524363517538025</v>
+        <v>1.536068985250344</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.518178229846259</v>
@@ -29698,7 +29590,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.542607076638215</v>
+        <v>1.548505800046155</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.708043107068137</v>
@@ -29787,7 +29679,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.51894198942719</v>
+        <v>1.529926056840986</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.640677944527477</v>
@@ -29876,7 +29768,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.528609358133692</v>
+        <v>1.538906823592556</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.386575820632114</v>
@@ -29965,7 +29857,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.548299919631597</v>
+        <v>1.556752267344222</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.766382033831313</v>
@@ -30054,7 +29946,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.563193999308177</v>
+        <v>1.572016800296609</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.375259507789414</v>
@@ -30143,7 +30035,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.559321762224243</v>
+        <v>1.569882734904913</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.80106535923804</v>
@@ -30232,7 +30124,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.563134110698055</v>
+        <v>1.572509307183868</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.804973607197384</v>
@@ -30321,7 +30213,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.548843273287287</v>
+        <v>1.555677173128611</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.856970268990334</v>
@@ -30410,7 +30302,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.553746744325842</v>
+        <v>1.559405291252403</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.743434810358592</v>
@@ -30499,7 +30391,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.554840382565172</v>
+        <v>1.563314190982315</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.85556153077936</v>
@@ -30588,7 +30480,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.572455529632107</v>
+        <v>1.578599562136541</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.956217551719342</v>
@@ -30677,7 +30569,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.571995546176097</v>
+        <v>1.573262126217509</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.998204494207872</v>
@@ -30766,7 +30658,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.559706749954111</v>
+        <v>1.5616016958984</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.880797594994389</v>
@@ -30855,7 +30747,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.55468633520847</v>
+        <v>1.55836309340442</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.965752309726331</v>
@@ -30944,7 +30836,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.568598631728601</v>
+        <v>1.565393343258966</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.142656076701343</v>
@@ -31033,7 +30925,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.568843836298062</v>
+        <v>1.567512883637692</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.647522761273616</v>
@@ -31122,7 +31014,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.582536648215023</v>
+        <v>1.57653151701585</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.075667236147189</v>
@@ -31211,7 +31103,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.558728000471599</v>
+        <v>1.554941063086039</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.751855704933734</v>
@@ -31300,7 +31192,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.545665795783279</v>
+        <v>1.545810850580806</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.73769232016984</v>
@@ -31389,7 +31281,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.546972867429114</v>
+        <v>1.542298874667378</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.66817091495882</v>
@@ -31478,7 +31370,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.554319695348235</v>
+        <v>1.541746768219954</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.504108300090606</v>
@@ -31567,7 +31459,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.549716081465454</v>
+        <v>1.53691036401474</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.490663994308711</v>
@@ -31656,7 +31548,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.550734086792781</v>
+        <v>1.540228368079847</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.59588954823686</v>
@@ -31745,7 +31637,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.547447915499498</v>
+        <v>1.531986789842151</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.666853995703048</v>
@@ -31834,7 +31726,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.520523610474029</v>
+        <v>1.511550825174018</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.633330646241952</v>
@@ -31923,7 +31815,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.518865514442547</v>
+        <v>1.512426792959552</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.701603247759122</v>
@@ -32012,7 +31904,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.510406418055311</v>
+        <v>1.507627472167421</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.593837174842837</v>
@@ -32101,7 +31993,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.51678920415134</v>
+        <v>1.511091251033869</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.637101666989416</v>
@@ -32190,7 +32082,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.513283209480635</v>
+        <v>1.505866655272378</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.857563938900385</v>
@@ -32279,7 +32171,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.501638031234114</v>
+        <v>1.504525182884935</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.726026635965495</v>
@@ -32368,7 +32260,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.504096671150638</v>
+        <v>1.505650873482804</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.784323659774549</v>
@@ -32457,7 +32349,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.507389504849002</v>
+        <v>1.508495998543409</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.790722593693304</v>
@@ -32546,7 +32438,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.535638950013998</v>
+        <v>1.533243751172767</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.930029607140381</v>
@@ -32635,7 +32527,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.542104681578917</v>
+        <v>1.540237371010493</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.657467360761499</v>
@@ -32724,7 +32616,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.523694656804751</v>
+        <v>1.52979786885315</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.838696669001946</v>
@@ -32813,7 +32705,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.525611561029618</v>
+        <v>1.532229116570356</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.631560628680198</v>
@@ -32902,7 +32794,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.530498558986449</v>
+        <v>1.543095331855733</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.838215840317265</v>
@@ -32991,7 +32883,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.531467348370616</v>
+        <v>1.546357997315625</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.63628451475795</v>
@@ -33080,7 +32972,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.549382674955375</v>
+        <v>1.554868576803214</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.53441517966795</v>
@@ -33169,7 +33061,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.532525203215468</v>
+        <v>1.545290897518365</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.946609301408841</v>
@@ -33258,7 +33150,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.535930448000686</v>
+        <v>1.546195607731904</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.723158083370399</v>
@@ -33347,7 +33239,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.542408375040828</v>
+        <v>1.55440955574902</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.628938266907769</v>
@@ -33436,7 +33328,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.549528913827823</v>
+        <v>1.560767458682766</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.760949523713804</v>
@@ -33525,7 +33417,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.566095688716748</v>
+        <v>1.574489466991621</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.540508541854304</v>
@@ -33614,7 +33506,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.556112203382825</v>
+        <v>1.565925535959794</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.901229390968475</v>
@@ -33703,7 +33595,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.551236063528061</v>
+        <v>1.558633698786956</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.761718714945653</v>
@@ -33792,7 +33684,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.556156966960086</v>
+        <v>1.569372130196516</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.887660920540004</v>
@@ -33881,7 +33773,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.564555743833586</v>
+        <v>1.582564924531959</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.990275696259046</v>
@@ -33970,7 +33862,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.570385809615074</v>
+        <v>1.580144674956078</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.657518379677291</v>
@@ -34059,7 +33951,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.567624928008194</v>
+        <v>1.577171510447816</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.854886109453763</v>
@@ -34148,7 +34040,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.572510007484904</v>
+        <v>1.580837211615725</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.746410991193324</v>
@@ -34237,7 +34129,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.571804324648093</v>
+        <v>1.575672191651647</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.598102897055173</v>
@@ -34326,7 +34218,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.583687882975752</v>
+        <v>1.586583754642463</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.034310996918175</v>
@@ -34415,7 +34307,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.577350281490379</v>
+        <v>1.580978168095808</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.710367055689213</v>
@@ -34504,7 +34396,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.587097750397533</v>
+        <v>1.586837044820262</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.435784960913162</v>
@@ -34593,7 +34485,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.494327729994358</v>
+        <v>1.502750705106472</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.009049443086478</v>
@@ -34682,7 +34574,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.500234302250125</v>
+        <v>1.503948223599143</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.015876208244054</v>
@@ -34968,7 +34860,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.363496964617603</v>
+        <v>1.38612699223913</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.111362141753402</v>
@@ -35057,7 +34949,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.377534985714619</v>
+        <v>1.396986732440623</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.88997973213412</v>
@@ -35146,7 +35038,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.394822093601499</v>
+        <v>1.411331760095236</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.977151468384829</v>
@@ -35235,7 +35127,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.360025219923342</v>
+        <v>1.372364183017552</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.06845416515324</v>
@@ -35324,7 +35216,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.371624547255087</v>
+        <v>1.383060041447625</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.078341794390392</v>
@@ -35413,7 +35305,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.372220760407127</v>
+        <v>1.383853906822035</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.046173959023566</v>
@@ -35502,7 +35394,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.379498445518168</v>
+        <v>1.385465545257869</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.988911735817176</v>
@@ -35591,7 +35483,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.434771603438804</v>
+        <v>1.438256848252237</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.035386825721668</v>
@@ -35680,7 +35572,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.433124185619892</v>
+        <v>1.437157967618515</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.010168419678948</v>
@@ -35769,7 +35661,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.432147298618145</v>
+        <v>1.433584567476604</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.020623249863412</v>
@@ -35858,7 +35750,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.431132258910476</v>
+        <v>1.429408461079271</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.99133677778257</v>
@@ -35947,7 +35839,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.422102134638709</v>
+        <v>1.422165005012189</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.938447759417113</v>
@@ -36036,7 +35928,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.453789848070729</v>
+        <v>1.454037182551533</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.95380018144133</v>
@@ -36125,7 +36017,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.444297724785008</v>
+        <v>1.449972864744238</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.974799286193146</v>
@@ -36214,7 +36106,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.447040378584135</v>
+        <v>1.455124506935051</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.975563537467672</v>
@@ -36303,7 +36195,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.440927755462118</v>
+        <v>1.449417855550846</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.981799525711651</v>
@@ -36392,7 +36284,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.436930764551897</v>
+        <v>1.445826185752548</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.975990994060781</v>
@@ -36481,7 +36373,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.463232341522748</v>
+        <v>1.468576281062771</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.975815867875558</v>
@@ -36570,7 +36462,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.560001307396253</v>
+        <v>1.55840640758507</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.528526461344524</v>
@@ -36659,7 +36551,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.565776730252093</v>
+        <v>1.569859698575699</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.723526048415291</v>
@@ -36748,7 +36640,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.562165008548466</v>
+        <v>1.564715659492262</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.992671052553873</v>
@@ -36837,7 +36729,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.55351830050908</v>
+        <v>1.564234154174343</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.653093118186237</v>
@@ -36926,7 +36818,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.54659394639672</v>
+        <v>1.554057331985351</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.798727156148161</v>
@@ -37015,7 +36907,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.546250695770529</v>
+        <v>1.549276047890088</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.978329967983845</v>
@@ -37104,7 +36996,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.55052392914789</v>
+        <v>1.558066977805897</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.995986422814335</v>
@@ -37193,7 +37085,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.560568169528618</v>
+        <v>1.563662394120116</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.589999922793024</v>
@@ -37282,7 +37174,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.567472040517622</v>
+        <v>1.569278655304974</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.666830576352467</v>
@@ -37371,7 +37263,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.580462024242492</v>
+        <v>1.571996867418409</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.0572653978347</v>
@@ -37460,7 +37352,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.565427360720271</v>
+        <v>1.558455547056059</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.97076372156705</v>
@@ -37549,7 +37441,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.516744877672556</v>
+        <v>1.517911404170824</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.185165829043699</v>
@@ -37638,7 +37530,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.528904443159815</v>
+        <v>1.522795971354135</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.139560738275225</v>
@@ -37727,7 +37619,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.529116318691396</v>
+        <v>1.520959850519202</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.295537990644987</v>
@@ -37816,7 +37708,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.528765484973773</v>
+        <v>1.516852183560396</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.372646524194952</v>
@@ -37905,7 +37797,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.523197652859693</v>
+        <v>1.507626704285088</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.290539422923491</v>
@@ -37994,7 +37886,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.526633812818721</v>
+        <v>1.506971238048069</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.282616323527012</v>
@@ -38083,7 +37975,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.529886313486089</v>
+        <v>1.509447027497837</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.264539441954904</v>
@@ -38172,7 +38064,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.540390046932239</v>
+        <v>1.518138478372631</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.221396378729654</v>
@@ -38261,7 +38153,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.541530288277204</v>
+        <v>1.522002846799421</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.242020851935234</v>
@@ -38350,7 +38242,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530884052663512</v>
+        <v>1.514973415942032</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.24306024714195</v>
@@ -38439,7 +38331,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.533009714313521</v>
+        <v>1.515769297103245</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.291374780071937</v>
@@ -38528,7 +38420,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.53762139349184</v>
+        <v>1.521829980382365</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.209469818394032</v>
@@ -38617,7 +38509,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.540203955867156</v>
+        <v>1.524391532914606</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.179382759987488</v>
@@ -38706,7 +38598,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.555071888020337</v>
+        <v>1.53431132131615</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.396134508525976</v>
@@ -38795,7 +38687,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.545813187489294</v>
+        <v>1.530619747224854</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.299257336091251</v>
@@ -38884,7 +38776,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.602534632306075</v>
+        <v>1.571584798098001</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.874702931303452</v>
@@ -38973,7 +38865,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.599508582824691</v>
+        <v>1.572635920264604</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.607087511667382</v>
@@ -39062,7 +38954,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.598185285288842</v>
+        <v>1.57300912029319</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.004033527779725</v>
@@ -39151,7 +39043,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.603623412146612</v>
+        <v>1.579931733641117</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.45956842303405</v>
@@ -39240,7 +39132,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.61133354098005</v>
+        <v>1.597432447171768</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.721751190715345</v>
@@ -39329,7 +39221,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.608572028276533</v>
+        <v>1.596988140676336</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.845979226171343</v>
@@ -39418,7 +39310,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.606906356198393</v>
+        <v>1.594617749385905</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.921907923791884</v>
@@ -39507,7 +39399,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.604810289901165</v>
+        <v>1.592372960838586</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.009735857731855</v>
@@ -39596,7 +39488,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.623676669309166</v>
+        <v>1.605836833168505</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.83010473017714</v>
@@ -39685,7 +39577,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.627833340804572</v>
+        <v>1.610097034395327</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.667551725236867</v>
@@ -39774,7 +39666,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.607578067564403</v>
+        <v>1.593590494706795</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.601227692519301</v>
@@ -39863,7 +39755,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.603737609276735</v>
+        <v>1.590718511670221</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.51213277203181</v>
@@ -39952,7 +39844,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.608539085832167</v>
+        <v>1.591267320844114</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.475133193911595</v>
@@ -40041,7 +39933,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.600346295252905</v>
+        <v>1.579533559400379</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.53091863781692</v>
@@ -40130,7 +40022,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.595537502298619</v>
+        <v>1.580770442493259</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.453500335176084</v>
@@ -40219,7 +40111,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.496471434960008</v>
+        <v>1.489036400770423</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.030078710083285</v>
@@ -40308,7 +40200,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.489847487314176</v>
+        <v>1.483304730464784</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.986945085653871</v>
